--- a/seo_used_cars_assignment.xlsx
+++ b/seo_used_cars_assignment.xlsx
@@ -13651,7 +13651,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B4">
         <v>723</v>
@@ -13659,7 +13659,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="B5">
         <v>723</v>
@@ -13797,7 +13797,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B3">
         <v>449</v>
@@ -13805,7 +13805,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B4">
         <v>449</v>
